--- a/SensitivityAnalysisSpreadSheets/Unchock Time/UnchockTime10 aircraft 9_1_-20%.xlsx
+++ b/SensitivityAnalysisSpreadSheets/Unchock Time/UnchockTime10 aircraft 9_1_-20%.xlsx
@@ -78593,6 +78593,9 @@
           <t>Run 1</t>
         </is>
       </c>
+      <c r="B2" t="n">
+        <v>12.8005</v>
+      </c>
       <c r="C2" t="n">
         <v>438.3022222222222</v>
       </c>
@@ -78648,6 +78651,9 @@
           <t>Run 2</t>
         </is>
       </c>
+      <c r="B3" t="n">
+        <v>12.5955</v>
+      </c>
       <c r="C3" t="n">
         <v>435.4355555555555</v>
       </c>
@@ -78703,6 +78709,9 @@
           <t>Run 3</t>
         </is>
       </c>
+      <c r="B4" t="n">
+        <v>12.189</v>
+      </c>
       <c r="C4" t="n">
         <v>401.2833333333333</v>
       </c>
@@ -78758,6 +78767,9 @@
           <t>Run 4</t>
         </is>
       </c>
+      <c r="B5" t="n">
+        <v>13.22433333333333</v>
+      </c>
       <c r="C5" t="n">
         <v>426.2311111111111</v>
       </c>
@@ -78813,6 +78825,9 @@
           <t>Run 5</t>
         </is>
       </c>
+      <c r="B6" t="n">
+        <v>12.5305</v>
+      </c>
       <c r="C6" t="n">
         <v>432.8705555555556</v>
       </c>
@@ -78868,6 +78883,9 @@
           <t>Run 6</t>
         </is>
       </c>
+      <c r="B7" t="n">
+        <v>13.591</v>
+      </c>
       <c r="C7" t="n">
         <v>433.9666666666666</v>
       </c>
@@ -78923,6 +78941,9 @@
           <t>Run 7</t>
         </is>
       </c>
+      <c r="B8" t="n">
+        <v>13.69133333333333</v>
+      </c>
       <c r="C8" t="n">
         <v>433.965</v>
       </c>
@@ -78978,6 +78999,9 @@
           <t>Run 8</t>
         </is>
       </c>
+      <c r="B9" t="n">
+        <v>13.3725</v>
+      </c>
       <c r="C9" t="n">
         <v>419.6711111111111</v>
       </c>
@@ -79033,6 +79057,9 @@
           <t>Run 9</t>
         </is>
       </c>
+      <c r="B10" t="n">
+        <v>11.94866666666667</v>
+      </c>
       <c r="C10" t="n">
         <v>415.8722222222223</v>
       </c>
@@ -79088,6 +79115,9 @@
           <t>Run 10</t>
         </is>
       </c>
+      <c r="B11" t="n">
+        <v>11.56283333333333</v>
+      </c>
       <c r="C11" t="n">
         <v>423.5716666666667</v>
       </c>
@@ -79143,6 +79173,9 @@
           <t>Run 11</t>
         </is>
       </c>
+      <c r="B12" t="n">
+        <v>14.95716666666667</v>
+      </c>
       <c r="C12" t="n">
         <v>446.7711111111112</v>
       </c>
@@ -79198,6 +79231,9 @@
           <t>Run 12</t>
         </is>
       </c>
+      <c r="B13" t="n">
+        <v>11.62283333333333</v>
+      </c>
       <c r="C13" t="n">
         <v>406.6855555555555</v>
       </c>
@@ -79253,6 +79289,9 @@
           <t>Run 13</t>
         </is>
       </c>
+      <c r="B14" t="n">
+        <v>13.80116666666667</v>
+      </c>
       <c r="C14" t="n">
         <v>445.5944444444444</v>
       </c>
@@ -79308,6 +79347,9 @@
           <t>Run 14</t>
         </is>
       </c>
+      <c r="B15" t="n">
+        <v>13.504</v>
+      </c>
       <c r="C15" t="n">
         <v>430.8494444444445</v>
       </c>
@@ -79363,6 +79405,9 @@
           <t>Run 15</t>
         </is>
       </c>
+      <c r="B16" t="n">
+        <v>13.71633333333333</v>
+      </c>
       <c r="C16" t="n">
         <v>439.4866666666667</v>
       </c>
@@ -79418,6 +79463,9 @@
           <t>Run 16</t>
         </is>
       </c>
+      <c r="B17" t="n">
+        <v>12.3445</v>
+      </c>
       <c r="C17" t="n">
         <v>434.5266666666668</v>
       </c>
@@ -79473,6 +79521,9 @@
           <t>Run 17</t>
         </is>
       </c>
+      <c r="B18" t="n">
+        <v>12.9345</v>
+      </c>
       <c r="C18" t="n">
         <v>408.3883333333333</v>
       </c>
@@ -79528,6 +79579,9 @@
           <t>Run 18</t>
         </is>
       </c>
+      <c r="B19" t="n">
+        <v>14.43716666666667</v>
+      </c>
       <c r="C19" t="n">
         <v>448.0727777777778</v>
       </c>
@@ -79583,6 +79637,9 @@
           <t>Run 19</t>
         </is>
       </c>
+      <c r="B20" t="n">
+        <v>12.54116666666667</v>
+      </c>
       <c r="C20" t="n">
         <v>437.9783333333332</v>
       </c>
@@ -79638,6 +79695,9 @@
           <t>Run 20</t>
         </is>
       </c>
+      <c r="B21" t="n">
+        <v>12.63716666666667</v>
+      </c>
       <c r="C21" t="n">
         <v>429.2088888888889</v>
       </c>
@@ -79693,6 +79753,9 @@
           <t>Run 21</t>
         </is>
       </c>
+      <c r="B22" t="n">
+        <v>14.21166666666667</v>
+      </c>
       <c r="C22" t="n">
         <v>451.3327777777778</v>
       </c>
@@ -79748,6 +79811,9 @@
           <t>Run 22</t>
         </is>
       </c>
+      <c r="B23" t="n">
+        <v>11.73516666666667</v>
+      </c>
       <c r="C23" t="n">
         <v>379.6861111111111</v>
       </c>
@@ -79803,6 +79869,9 @@
           <t>Run 23</t>
         </is>
       </c>
+      <c r="B24" t="n">
+        <v>13.13566666666667</v>
+      </c>
       <c r="C24" t="n">
         <v>435.4783333333334</v>
       </c>
@@ -79858,6 +79927,9 @@
           <t>Run 24</t>
         </is>
       </c>
+      <c r="B25" t="n">
+        <v>13.70483333333333</v>
+      </c>
       <c r="C25" t="n">
         <v>416.5094444444444</v>
       </c>
@@ -79913,6 +79985,9 @@
           <t>Run 25</t>
         </is>
       </c>
+      <c r="B26" t="n">
+        <v>14.6515</v>
+      </c>
       <c r="C26" t="n">
         <v>450.0727777777778</v>
       </c>
@@ -79968,6 +80043,9 @@
           <t>Run 26</t>
         </is>
       </c>
+      <c r="B27" t="n">
+        <v>13.14383333333333</v>
+      </c>
       <c r="C27" t="n">
         <v>418.0577777777777</v>
       </c>
@@ -80023,6 +80101,9 @@
           <t>Run 27</t>
         </is>
       </c>
+      <c r="B28" t="n">
+        <v>12.29233333333333</v>
+      </c>
       <c r="C28" t="n">
         <v>430.4527777777778</v>
       </c>
@@ -80078,6 +80159,9 @@
           <t>Run 28</t>
         </is>
       </c>
+      <c r="B29" t="n">
+        <v>12.67866666666667</v>
+      </c>
       <c r="C29" t="n">
         <v>429.3222222222223</v>
       </c>
@@ -80133,6 +80217,9 @@
           <t>Run 29</t>
         </is>
       </c>
+      <c r="B30" t="n">
+        <v>11.69616666666667</v>
+      </c>
       <c r="C30" t="n">
         <v>418.6938888888889</v>
       </c>
@@ -80187,6 +80274,9 @@
         <is>
           <t>Run 30</t>
         </is>
+      </c>
+      <c r="B31" t="n">
+        <v>13.4515</v>
       </c>
       <c r="C31" t="n">
         <v>433.9194444444444</v>
